--- a/展会网站报价汇总.xlsx
+++ b/展会网站报价汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>类型</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>45天</t>
+  </si>
+  <si>
+    <t>http://www.biozl.net/</t>
   </si>
 </sst>
 </file>
@@ -146,6 +149,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -153,15 +163,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,52 +178,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,42 +253,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -296,187 +299,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,21 +532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -568,17 +556,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,8 +583,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,15 +629,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -634,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,16 +649,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,112 +670,112 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1154,7 +1157,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1357,6 +1360,11 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="7"/>

--- a/展会网站报价汇总.xlsx
+++ b/展会网站报价汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20475" windowHeight="8385"/>
+    <workbookView windowWidth="23925" windowHeight="10005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
     <t>总工期：</t>
   </si>
   <si>
-    <t>45天</t>
+    <t>40天</t>
   </si>
   <si>
     <t>http://www.biozl.net/</t>
@@ -97,8 +97,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -149,12 +149,118 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -162,8 +268,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,113 +283,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -299,187 +299,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,39 +532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -580,15 +547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -600,6 +558,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,6 +588,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -629,6 +614,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -637,145 +637,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1155,9 +1155,9 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4">
-        <v>280</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:3">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:3">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:3">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:3">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:3">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:3">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:3">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4">
-        <v>360</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="23" customHeight="1" spans="1:3">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5">
-        <v>460</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="23" customHeight="1" spans="1:3">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5">
-        <v>410</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="23" customHeight="1" spans="1:3">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5">
-        <v>1900</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="16" ht="23" customHeight="1" spans="1:3">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5">
-        <v>2250</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="20" customHeight="1" spans="1:3">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
-        <v>3900</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="20" customHeight="1" spans="1:3">
@@ -1344,7 +1344,7 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6">
         <f>SUM(C3:C16,C19)</f>
-        <v>10380</v>
+        <v>7520</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="23" customHeight="1" spans="1:3">
@@ -1362,7 +1362,7 @@
       <c r="C23" s="4"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1394,6 +1394,9 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A18:C18"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A25" r:id="rId1" display="http://www.biozl.net/"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>

--- a/展会网站报价汇总.xlsx
+++ b/展会网站报价汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23925" windowHeight="10005"/>
+    <workbookView windowWidth="20475" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>类型</t>
   </si>
@@ -60,12 +60,6 @@
     <t>参观登记</t>
   </si>
   <si>
-    <t>注册</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
     <t>发布信息</t>
   </si>
   <si>
@@ -84,7 +78,7 @@
     <t>总工期：</t>
   </si>
   <si>
-    <t>40天</t>
+    <t>35天</t>
   </si>
   <si>
     <t>http://www.biozl.net/</t>
@@ -95,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -163,23 +157,45 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,24 +209,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,14 +225,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -239,22 +249,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,19 +271,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -305,18 +299,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -329,157 +413,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,6 +526,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -565,41 +607,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,21 +623,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -637,145 +631,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1152,12 +1146,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1191,7 +1185,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:3">
@@ -1200,7 +1194,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:3">
@@ -1209,7 +1203,7 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:3">
@@ -1227,7 +1221,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:3">
@@ -1254,7 +1248,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:3">
@@ -1272,7 +1266,7 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4">
-        <v>190</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="23" customHeight="1" spans="1:3">
@@ -1281,101 +1275,85 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="23" customHeight="1" spans="1:3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" ht="23" customHeight="1" spans="1:3">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" ht="23" customHeight="1" spans="1:3">
-      <c r="A15" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="20" customHeight="1" spans="1:3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" customFormat="1" ht="20" customHeight="1" spans="1:3">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="16" ht="23" customHeight="1" spans="1:3">
-      <c r="A16" s="5" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" customFormat="1" ht="20" customHeight="1" spans="1:3">
+      <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" ht="20" customHeight="1" spans="1:3">
-      <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4">
+        <v>1260</v>
+      </c>
     </row>
     <row r="18" customFormat="1" ht="20" customHeight="1" spans="1:3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" customFormat="1" ht="21" customHeight="1" spans="1:3">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" customFormat="1" ht="20" customHeight="1" spans="1:3">
-      <c r="A19" s="4" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6">
+        <f>SUM(C3:C14,C17)</f>
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="23" customHeight="1" spans="1:3">
+      <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4">
-        <v>2360</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" ht="20" customHeight="1" spans="1:3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" customFormat="1" ht="21" customHeight="1" spans="1:3">
-      <c r="A21" s="6" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6">
-        <f>SUM(C3:C16,C19)</f>
-        <v>7520</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" ht="23" customHeight="1" spans="1:3">
-      <c r="A22" s="6" t="s">
+    </row>
+    <row r="21" customFormat="1" ht="20" customHeight="1" spans="1:3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" ht="20" customHeight="1" spans="1:3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="7"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="A25" s="7"/>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="7"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="7"/>
-    </row>
-    <row r="33" ht="16" customHeight="1"/>
+    <row r="31" ht="16" customHeight="1"/>
+    <row r="32" s="1" customFormat="1" ht="20.25"/>
+    <row r="33" s="1" customFormat="1" ht="20.25"/>
     <row r="34" s="1" customFormat="1" ht="20.25"/>
     <row r="35" s="1" customFormat="1" ht="20.25"/>
     <row r="36" s="1" customFormat="1" ht="20.25"/>
@@ -1387,15 +1365,13 @@
     <row r="42" s="1" customFormat="1" ht="20.25"/>
     <row r="43" s="1" customFormat="1" ht="20.25"/>
     <row r="44" s="1" customFormat="1" ht="20.25"/>
-    <row r="45" s="1" customFormat="1" ht="20.25"/>
-    <row r="46" s="1" customFormat="1" ht="20.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A25" r:id="rId1" display="http://www.biozl.net/"/>
+    <hyperlink ref="A23" r:id="rId1" display="http://www.biozl.net/"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
